--- a/py/project_tasks/markov.xlsx
+++ b/py/project_tasks/markov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\ds-network-analysis\py\project_tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB7100-D2A7-4E49-A8F3-7356F69E4B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71507545-2CD7-4C2C-ABC8-8F444A51CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{035DC65D-C42C-43C7-B334-B3BECA201E9E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="8">
   <si>
     <t>utente</t>
   </si>
@@ -58,15 +58,24 @@
   <si>
     <t>nocare</t>
   </si>
+  <si>
+    <t>cat3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -408,15 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3D5119-EB06-4265-A608-1804E3D422DC}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +438,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,10 +450,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -448,8 +466,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -457,10 +478,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -468,10 +492,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -481,8 +508,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -492,8 +522,11 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -503,8 +536,11 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -512,10 +548,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -525,8 +564,11 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -536,8 +578,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -547,8 +592,11 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -558,8 +606,11 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -567,10 +618,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -578,10 +632,13 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -591,8 +648,11 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -602,8 +662,11 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -613,8 +676,11 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -622,10 +688,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -633,10 +702,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -646,8 +718,11 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -657,8 +732,11 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -666,10 +744,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -677,10 +758,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -690,8 +774,11 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -701,8 +788,11 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -712,8 +802,11 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -721,10 +814,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -732,10 +828,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -743,10 +842,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -756,8 +858,11 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -767,8 +872,12 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>